--- a/sky-server/src/main/resources/template/运营数据报表模板.xlsx
+++ b/sky-server/src/main/resources/template/运营数据报表模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\reggie_parent\reggie_server\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sky_takeout\sky-take-out\sky-server\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C592E-8D03-4F3D-B636-431992BC63AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD117D-EA85-4E3E-9BB4-CFFF879BAE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -764,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,9 +780,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,13 +793,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1128,43 +1125,43 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="15.6328125" style="1"/>
+    <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1175,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1190,17 +1187,17 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1220,240 +1217,240 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+    <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+    <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+    <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+    <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+    <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+    <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+    <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
+    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+    <row r="25" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+    <row r="26" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+    <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+    <row r="28" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+    <row r="29" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
+    <row r="30" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
+    <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
+    <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+    <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
+    <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
+    <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
+    <row r="36" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
+    <row r="37" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
